--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>62.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -706,25 +786,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>90.27</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006038</t>
+          <t>006845</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成景恒混合C</t>
+          <t>中信建投聚利混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1482,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.16</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1498,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1466,7 +1509,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1482,14 +1615,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1631,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.16</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5202</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.52</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6790</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -639,264 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2549</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1175</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0910</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>090019</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成景恒混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001914</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>39.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006038</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006845</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>39.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -961,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.98</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4759</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -999,149 +809,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005437</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成景恒混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006038</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1288,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1339,36 +1035,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.4759</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1377,35 +1073,149 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>006038</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>大成景恒混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1420,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,7 +1251,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1471,36 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>95.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.6790</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1509,36 +1319,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>006038</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>大成景恒混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1552,128 +1590,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.52</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.16</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -781,26 +798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -819,26 +836,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -913,26 +930,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -951,26 +968,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -979,6 +996,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1224,7 +1373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
+++ b/数据整理/stocks/A股/创业板/300137-先河环保.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.16</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -798,26 +815,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -836,26 +853,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -930,26 +947,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -968,26 +985,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1039,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1062,26 +1079,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1100,26 +1117,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1128,6 +1145,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1373,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1733,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
